--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Sema3d-Nrp1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Sema3d-Nrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Nrp1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>11.651011261554</v>
+        <v>0.03373200000000001</v>
       </c>
       <c r="H2">
-        <v>11.651011261554</v>
+        <v>0.101196</v>
       </c>
       <c r="I2">
-        <v>0.9613641832318607</v>
+        <v>0.002572411152219347</v>
       </c>
       <c r="J2">
-        <v>0.9613641832318607</v>
+        <v>0.002572411152219347</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>63.8907605902015</v>
+        <v>102.8289443333334</v>
       </c>
       <c r="N2">
-        <v>63.8907605902015</v>
+        <v>308.486833</v>
       </c>
       <c r="O2">
-        <v>0.4438186181601575</v>
+        <v>0.5559120396302444</v>
       </c>
       <c r="P2">
-        <v>0.4438186181601575</v>
+        <v>0.5559120396302443</v>
       </c>
       <c r="Q2">
-        <v>744.3919711456882</v>
+        <v>3.468625950252001</v>
       </c>
       <c r="R2">
-        <v>744.3919711456882</v>
+        <v>31.21763355226801</v>
       </c>
       <c r="S2">
-        <v>0.4266713233506328</v>
+        <v>0.001430034330397844</v>
       </c>
       <c r="T2">
-        <v>0.4266713233506328</v>
+        <v>0.001430034330397844</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>11.651011261554</v>
+        <v>0.03373200000000001</v>
       </c>
       <c r="H3">
-        <v>11.651011261554</v>
+        <v>0.101196</v>
       </c>
       <c r="I3">
-        <v>0.9613641832318607</v>
+        <v>0.002572411152219347</v>
       </c>
       <c r="J3">
-        <v>0.9613641832318607</v>
+        <v>0.002572411152219347</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>61.6107436040296</v>
+        <v>63.66262833333334</v>
       </c>
       <c r="N3">
-        <v>61.6107436040296</v>
+        <v>190.987885</v>
       </c>
       <c r="O3">
-        <v>0.4279804284307385</v>
+        <v>0.3441717873742006</v>
       </c>
       <c r="P3">
-        <v>0.4279804284307385</v>
+        <v>0.3441717873742006</v>
       </c>
       <c r="Q3">
-        <v>717.8274675632649</v>
+        <v>2.14746777894</v>
       </c>
       <c r="R3">
-        <v>717.8274675632649</v>
+        <v>19.32721001046</v>
       </c>
       <c r="S3">
-        <v>0.4114450550175387</v>
+        <v>0.0008853513441206594</v>
       </c>
       <c r="T3">
-        <v>0.4114450550175387</v>
+        <v>0.0008853513441206594</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>11.651011261554</v>
+        <v>0.03373200000000001</v>
       </c>
       <c r="H4">
-        <v>11.651011261554</v>
+        <v>0.101196</v>
       </c>
       <c r="I4">
-        <v>0.9613641832318607</v>
+        <v>0.002572411152219347</v>
       </c>
       <c r="J4">
-        <v>0.9613641832318607</v>
+        <v>0.002572411152219347</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.455414186209</v>
+        <v>18.481835</v>
       </c>
       <c r="N4">
-        <v>18.455414186209</v>
+        <v>55.445505</v>
       </c>
       <c r="O4">
-        <v>0.1282009534091041</v>
+        <v>0.09991617299555507</v>
       </c>
       <c r="P4">
-        <v>0.1282009534091041</v>
+        <v>0.09991617299555505</v>
       </c>
       <c r="Q4">
-        <v>215.0242385201645</v>
+        <v>0.6234292582200001</v>
       </c>
       <c r="R4">
-        <v>215.0242385201645</v>
+        <v>5.61086332398</v>
       </c>
       <c r="S4">
-        <v>0.1232478048636892</v>
+        <v>0.0002570254777008434</v>
       </c>
       <c r="T4">
-        <v>0.1232478048636892</v>
+        <v>0.0002570254777008433</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.468237057419439</v>
+        <v>12.484157</v>
       </c>
       <c r="H5">
-        <v>0.468237057419439</v>
+        <v>37.452471</v>
       </c>
       <c r="I5">
-        <v>0.03863581676813938</v>
+        <v>0.9520450816096649</v>
       </c>
       <c r="J5">
-        <v>0.03863581676813938</v>
+        <v>0.9520450816096651</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>63.8907605902015</v>
+        <v>102.8289443333334</v>
       </c>
       <c r="N5">
-        <v>63.8907605902015</v>
+        <v>308.486833</v>
       </c>
       <c r="O5">
-        <v>0.4438186181601575</v>
+        <v>0.5559120396302444</v>
       </c>
       <c r="P5">
-        <v>0.4438186181601575</v>
+        <v>0.5559120396302443</v>
       </c>
       <c r="Q5">
-        <v>29.91602173504581</v>
+        <v>1283.732685201594</v>
       </c>
       <c r="R5">
-        <v>29.91602173504581</v>
+        <v>11553.59416681435</v>
       </c>
       <c r="S5">
-        <v>0.01714729480952466</v>
+        <v>0.5292533231375713</v>
       </c>
       <c r="T5">
-        <v>0.01714729480952466</v>
+        <v>0.5292533231375712</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.468237057419439</v>
+        <v>12.484157</v>
       </c>
       <c r="H6">
-        <v>0.468237057419439</v>
+        <v>37.452471</v>
       </c>
       <c r="I6">
-        <v>0.03863581676813938</v>
+        <v>0.9520450816096649</v>
       </c>
       <c r="J6">
-        <v>0.03863581676813938</v>
+        <v>0.9520450816096651</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>61.6107436040296</v>
+        <v>63.66262833333334</v>
       </c>
       <c r="N6">
-        <v>61.6107436040296</v>
+        <v>190.987885</v>
       </c>
       <c r="O6">
-        <v>0.4279804284307385</v>
+        <v>0.3441717873742006</v>
       </c>
       <c r="P6">
-        <v>0.4279804284307385</v>
+        <v>0.3441717873742006</v>
       </c>
       <c r="Q6">
-        <v>28.84843329057434</v>
+        <v>794.7742471459818</v>
       </c>
       <c r="R6">
-        <v>28.84843329057434</v>
+        <v>7152.968224313836</v>
       </c>
       <c r="S6">
-        <v>0.0165353734131998</v>
+        <v>0.3276670573984151</v>
       </c>
       <c r="T6">
-        <v>0.0165353734131998</v>
+        <v>0.3276670573984151</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>12.484157</v>
+      </c>
+      <c r="H7">
+        <v>37.452471</v>
+      </c>
+      <c r="I7">
+        <v>0.9520450816096649</v>
+      </c>
+      <c r="J7">
+        <v>0.9520450816096651</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>18.481835</v>
+      </c>
+      <c r="N7">
+        <v>55.445505</v>
+      </c>
+      <c r="O7">
+        <v>0.09991617299555507</v>
+      </c>
+      <c r="P7">
+        <v>0.09991617299555505</v>
+      </c>
+      <c r="Q7">
+        <v>230.730129788095</v>
+      </c>
+      <c r="R7">
+        <v>2076.571168092855</v>
+      </c>
+      <c r="S7">
+        <v>0.09512470107367862</v>
+      </c>
+      <c r="T7">
+        <v>0.09512470107367862</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.5951003333333332</v>
+      </c>
+      <c r="H8">
+        <v>1.785301</v>
+      </c>
+      <c r="I8">
+        <v>0.04538250723811564</v>
+      </c>
+      <c r="J8">
+        <v>0.04538250723811565</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>102.8289443333334</v>
+      </c>
+      <c r="N8">
+        <v>308.486833</v>
+      </c>
+      <c r="O8">
+        <v>0.5559120396302444</v>
+      </c>
+      <c r="P8">
+        <v>0.5559120396302443</v>
+      </c>
+      <c r="Q8">
+        <v>61.19353904908144</v>
+      </c>
+      <c r="R8">
+        <v>550.741851441733</v>
+      </c>
+      <c r="S8">
+        <v>0.0252286821622752</v>
+      </c>
+      <c r="T8">
+        <v>0.02522868216227519</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.468237057419439</v>
-      </c>
-      <c r="H7">
-        <v>0.468237057419439</v>
-      </c>
-      <c r="I7">
-        <v>0.03863581676813938</v>
-      </c>
-      <c r="J7">
-        <v>0.03863581676813938</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>18.455414186209</v>
-      </c>
-      <c r="N7">
-        <v>18.455414186209</v>
-      </c>
-      <c r="O7">
-        <v>0.1282009534091041</v>
-      </c>
-      <c r="P7">
-        <v>0.1282009534091041</v>
-      </c>
-      <c r="Q7">
-        <v>8.641508832007473</v>
-      </c>
-      <c r="R7">
-        <v>8.641508832007473</v>
-      </c>
-      <c r="S7">
-        <v>0.004953148545414919</v>
-      </c>
-      <c r="T7">
-        <v>0.004953148545414919</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.5951003333333332</v>
+      </c>
+      <c r="H9">
+        <v>1.785301</v>
+      </c>
+      <c r="I9">
+        <v>0.04538250723811564</v>
+      </c>
+      <c r="J9">
+        <v>0.04538250723811565</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>63.66262833333334</v>
+      </c>
+      <c r="N9">
+        <v>190.987885</v>
+      </c>
+      <c r="O9">
+        <v>0.3441717873742006</v>
+      </c>
+      <c r="P9">
+        <v>0.3441717873742006</v>
+      </c>
+      <c r="Q9">
+        <v>37.88565134204277</v>
+      </c>
+      <c r="R9">
+        <v>340.970862078385</v>
+      </c>
+      <c r="S9">
+        <v>0.01561937863166486</v>
+      </c>
+      <c r="T9">
+        <v>0.01561937863166486</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.5951003333333332</v>
+      </c>
+      <c r="H10">
+        <v>1.785301</v>
+      </c>
+      <c r="I10">
+        <v>0.04538250723811564</v>
+      </c>
+      <c r="J10">
+        <v>0.04538250723811565</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>18.481835</v>
+      </c>
+      <c r="N10">
+        <v>55.445505</v>
+      </c>
+      <c r="O10">
+        <v>0.09991617299555507</v>
+      </c>
+      <c r="P10">
+        <v>0.09991617299555505</v>
+      </c>
+      <c r="Q10">
+        <v>10.99854616911166</v>
+      </c>
+      <c r="R10">
+        <v>98.98691552200498</v>
+      </c>
+      <c r="S10">
+        <v>0.004534446444175592</v>
+      </c>
+      <c r="T10">
+        <v>0.004534446444175592</v>
       </c>
     </row>
   </sheetData>
